--- a/data/trans_camb/POLIPATOLOGIA_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 14,55</t>
+          <t>5,7; 14,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,93</t>
+          <t>0,99; 10,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,3</t>
+          <t>11,9; 21,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,76</t>
+          <t>4,25; 12,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,34</t>
+          <t>3,55; 12,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,98</t>
+          <t>13,27; 20,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,95</t>
+          <t>6,34; 12,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,0</t>
+          <t>3,93; 10,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,43</t>
+          <t>14,29; 20,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 39,94</t>
+          <t>14,05; 39,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 27,16</t>
+          <t>2,48; 27,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,24; 59,86</t>
+          <t>29,09; 59,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 22,44</t>
+          <t>7,44; 22,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 23,11</t>
+          <t>5,89; 22,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,57; 39,44</t>
+          <t>23,16; 39,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 25,65</t>
+          <t>12,82; 25,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 21,39</t>
+          <t>7,94; 22,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 43,69</t>
+          <t>28,83; 44,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,63</t>
+          <t>2,27; 6,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,21</t>
+          <t>4,8; 9,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 18,75</t>
+          <t>7,36; 18,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,72</t>
+          <t>1,65; 7,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,8</t>
+          <t>4,24; 10,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,25; 43,39</t>
+          <t>19,1; 40,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,41</t>
+          <t>2,79; 6,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,95</t>
+          <t>5,22; 8,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 29,91</t>
+          <t>15,0; 30,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 66,86</t>
+          <t>18,66; 70,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,71; 94,15</t>
+          <t>40,54; 94,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,58; 182,2</t>
+          <t>63,41; 181,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 41,36</t>
+          <t>7,94; 42,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 53,11</t>
+          <t>19,86; 56,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,64; 226,47</t>
+          <t>92,36; 213,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 43,82</t>
+          <t>17,26; 45,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 62,39</t>
+          <t>32,07; 61,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,07; 199,5</t>
+          <t>95,62; 201,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,96</t>
+          <t>-4,08; 4,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,14</t>
+          <t>2,44; 11,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,31</t>
+          <t>11,41; 19,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,65</t>
+          <t>-4,11; 6,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,56</t>
+          <t>-2,97; 6,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,73; 23,07</t>
+          <t>13,55; 23,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,13</t>
+          <t>-2,71; 3,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,91</t>
+          <t>1,07; 7,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,91</t>
+          <t>14,16; 20,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 41,63</t>
+          <t>-32,9; 43,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,28; 117,87</t>
+          <t>17,02; 126,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,67; 221,22</t>
+          <t>81,71; 215,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 41,07</t>
+          <t>-19,98; 40,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 41,14</t>
+          <t>-14,23; 41,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,15; 149,54</t>
+          <t>62,32; 152,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 32,44</t>
+          <t>-17,01; 28,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 60,59</t>
+          <t>6,46; 57,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,55; 160,83</t>
+          <t>87,08; 161,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,64</t>
+          <t>2,47; 6,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,13</t>
+          <t>2,07; 6,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 13,77</t>
+          <t>3,71; 13,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,47</t>
+          <t>2,91; 7,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,89</t>
+          <t>0,32; 5,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 26,23</t>
+          <t>12,39; 26,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,35</t>
+          <t>3,27; 6,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,95</t>
+          <t>1,71; 4,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,25</t>
+          <t>9,46; 18,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,62; 35,56</t>
+          <t>11,99; 36,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,17; 32,32</t>
+          <t>9,97; 32,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,09; 71,93</t>
+          <t>18,45; 71,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,13; 23,15</t>
+          <t>8,21; 23,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,18</t>
+          <t>0,9; 15,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,79; 78,8</t>
+          <t>36,36; 77,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 24,17</t>
+          <t>11,65; 25,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,96</t>
+          <t>5,97; 18,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>36,3; 72,32</t>
+          <t>35,26; 70,97</t>
         </is>
       </c>
     </row>
